--- a/Inputs/Bupa_BINS_Global/rateSheet.xlsx
+++ b/Inputs/Bupa_BINS_Global/rateSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="34">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -73,10 +73,10 @@
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 850  per year deductible</t>
+    <t xml:space="preserve">USD 850 per year deductible</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 1,700  per year deductible</t>
+    <t xml:space="preserve">USD 1,700 per year deductible</t>
   </si>
   <si>
     <t xml:space="preserve">USD 3,400 per year deductible</t>
@@ -91,13 +91,10 @@
     <t xml:space="preserve">Premier</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 12,750  per year deductible</t>
+    <t xml:space="preserve">USD 12,750 per year deductible</t>
   </si>
   <si>
     <t xml:space="preserve">Elite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 12,750 per year deductible</t>
   </si>
   <si>
     <t xml:space="preserve">USD 22,550 per year deductible</t>
@@ -136,7 +133,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +176,7 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -186,19 +184,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,7 +256,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,16 +268,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -375,11 +352,11 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.83"/>
@@ -536,7 +513,7 @@
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -568,7 +545,7 @@
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -696,7 +673,7 @@
       <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -728,7 +705,7 @@
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -856,7 +833,7 @@
       <c r="F15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -888,7 +865,7 @@
       <c r="F16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -1016,8 +993,8 @@
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>25</v>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>14</v>
@@ -1048,8 +1025,8 @@
       <c r="F21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>26</v>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -1063,7 +1040,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -1080,7 +1057,7 @@
       <c r="F22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1113,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>14</v>
@@ -1122,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>14</v>
@@ -1154,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>14</v>
@@ -1186,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,8 +1185,8 @@
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>32</v>
+      <c r="G26" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>14</v>
@@ -1218,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>14</v>
@@ -1250,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>14</v>
@@ -1282,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>14</v>
@@ -1314,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,8 +1313,8 @@
       <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>32</v>
+      <c r="G30" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>14</v>
@@ -1346,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>14</v>
@@ -1410,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>14</v>
@@ -1442,7 +1419,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,8 +1441,8 @@
       <c r="F34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>32</v>
+      <c r="G34" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>14</v>
@@ -1474,12 +1451,12 @@
         <v>15</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -1496,8 +1473,8 @@
       <c r="F35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>28</v>
+      <c r="G35" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>14</v>
@@ -1506,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -1549,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
@@ -1581,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
@@ -1613,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
@@ -1624,7 +1601,7 @@
       <c r="F39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -1645,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -1656,7 +1633,7 @@
       <c r="F40" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -1677,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
@@ -1709,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -1741,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
@@ -1773,7 +1750,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
@@ -1784,7 +1761,7 @@
       <c r="F44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -1805,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
@@ -1816,7 +1793,7 @@
       <c r="F45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -1837,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -1869,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
@@ -1901,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
@@ -1933,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
@@ -1944,7 +1921,7 @@
       <c r="F49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -1965,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1953,7 @@
       <c r="F50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -1997,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0</v>
@@ -2029,7 +2006,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0</v>
@@ -2061,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
@@ -2093,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
@@ -2104,8 +2081,8 @@
       <c r="F54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>25</v>
+      <c r="G54" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>14</v>
@@ -2125,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
@@ -2136,8 +2113,8 @@
       <c r="F55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>26</v>
+      <c r="G55" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>14</v>
@@ -2151,13 +2128,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
@@ -2168,7 +2145,7 @@
       <c r="F56" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -2189,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>0</v>
@@ -2201,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>14</v>
@@ -2210,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0</v>
@@ -2233,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>14</v>
@@ -2242,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>0</v>
@@ -2265,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>14</v>
@@ -2274,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0</v>
@@ -2296,8 +2273,8 @@
       <c r="F60" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>32</v>
+      <c r="G60" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>14</v>
@@ -2306,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>0</v>
@@ -2329,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>14</v>
@@ -2338,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
@@ -2361,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>14</v>
@@ -2370,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
@@ -2393,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>14</v>
@@ -2402,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
@@ -2424,8 +2401,8 @@
       <c r="F64" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>32</v>
+      <c r="G64" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>14</v>
@@ -2434,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -2457,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>14</v>
@@ -2466,7 +2443,7 @@
         <v>15</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -2489,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>14</v>
@@ -2498,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
@@ -2521,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>14</v>
@@ -2530,7 +2507,7 @@
         <v>15</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
@@ -2552,8 +2529,8 @@
       <c r="F68" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>32</v>
+      <c r="G68" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>14</v>
@@ -2562,31 +2539,31 @@
         <v>15</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="F69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="H69" s="7" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,8 +2581,8 @@
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>34</v>
+      <c r="C70" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -2636,8 +2613,8 @@
       <c r="B71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>34</v>
+      <c r="C71" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
@@ -2668,8 +2645,8 @@
       <c r="B72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>34</v>
+      <c r="C72" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
@@ -2700,8 +2677,8 @@
       <c r="B73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>34</v>
+      <c r="C73" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
@@ -2712,7 +2689,7 @@
       <c r="F73" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="7" t="s">
@@ -2732,8 +2709,8 @@
       <c r="B74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>34</v>
+      <c r="C74" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
@@ -2744,7 +2721,7 @@
       <c r="F74" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -2764,8 +2741,8 @@
       <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>34</v>
+      <c r="C75" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
@@ -2796,8 +2773,8 @@
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>34</v>
+      <c r="C76" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
@@ -2828,8 +2805,8 @@
       <c r="B77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>34</v>
+      <c r="C77" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
@@ -2860,8 +2837,8 @@
       <c r="B78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>34</v>
+      <c r="C78" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
@@ -2872,7 +2849,7 @@
       <c r="F78" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -2892,8 +2869,8 @@
       <c r="B79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>34</v>
+      <c r="C79" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>0</v>
@@ -2904,7 +2881,7 @@
       <c r="F79" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -2924,8 +2901,8 @@
       <c r="B80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>34</v>
+      <c r="C80" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>0</v>
@@ -2956,8 +2933,8 @@
       <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>34</v>
+      <c r="C81" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
@@ -2988,8 +2965,8 @@
       <c r="B82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>34</v>
+      <c r="C82" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -3020,8 +2997,8 @@
       <c r="B83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>34</v>
+      <c r="C83" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
@@ -3032,8 +3009,8 @@
       <c r="F83" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>25</v>
+      <c r="G83" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>14</v>
@@ -3052,8 +3029,8 @@
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>34</v>
+      <c r="C84" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
@@ -3064,8 +3041,8 @@
       <c r="F84" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>26</v>
+      <c r="G84" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>14</v>
@@ -3079,13 +3056,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>34</v>
+      <c r="C85" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
@@ -3096,7 +3073,7 @@
       <c r="F85" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -3116,8 +3093,8 @@
       <c r="B86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>34</v>
+      <c r="C86" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
@@ -3129,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>14</v>
@@ -3138,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,8 +3125,8 @@
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>34</v>
+      <c r="C87" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
@@ -3161,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>14</v>
@@ -3170,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,8 +3157,8 @@
       <c r="B88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>34</v>
+      <c r="C88" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
@@ -3193,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>14</v>
@@ -3202,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,8 +3189,8 @@
       <c r="B89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>34</v>
+      <c r="C89" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -3224,8 +3201,8 @@
       <c r="F89" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>32</v>
+      <c r="G89" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>14</v>
@@ -3234,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,8 +3221,8 @@
       <c r="B90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>34</v>
+      <c r="C90" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
@@ -3257,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>14</v>
@@ -3266,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,8 +3253,8 @@
       <c r="B91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>34</v>
+      <c r="C91" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
@@ -3289,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>14</v>
@@ -3298,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,8 +3285,8 @@
       <c r="B92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>34</v>
+      <c r="C92" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
@@ -3321,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>14</v>
@@ -3330,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,8 +3317,8 @@
       <c r="B93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>34</v>
+      <c r="C93" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
@@ -3352,8 +3329,8 @@
       <c r="F93" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>32</v>
+      <c r="G93" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>14</v>
@@ -3362,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,8 +3349,8 @@
       <c r="B94" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>34</v>
+      <c r="C94" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
@@ -3385,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>14</v>
@@ -3394,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,8 +3381,8 @@
       <c r="B95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>34</v>
+      <c r="C95" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
@@ -3417,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>14</v>
@@ -3426,7 +3403,7 @@
         <v>15</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,8 +3413,8 @@
       <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>34</v>
+      <c r="C96" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
@@ -3449,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>14</v>
@@ -3458,7 +3435,7 @@
         <v>15</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,8 +3445,8 @@
       <c r="B97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>34</v>
+      <c r="C97" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
@@ -3480,8 +3457,8 @@
       <c r="F97" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>32</v>
+      <c r="G97" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>14</v>
@@ -3490,7 +3467,7 @@
         <v>15</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
